--- a/需求/数据/app数据-7.31.xlsx
+++ b/需求/数据/app数据-7.31.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="67">
   <si>
     <t>产品</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,7 +444,7 @@
     <numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="179" formatCode="h:mm:ss;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +516,12 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -675,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -827,28 +833,73 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -884,71 +935,30 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="21" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,89 +1275,89 @@
     <col min="1" max="1" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="84" customFormat="1" ht="25.8">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:27" s="65" customFormat="1" ht="25.8">
+      <c r="A1" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
-      <c r="X1" s="83"/>
-      <c r="Y1" s="83"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="83"/>
-    </row>
-    <row r="2" spans="1:27" s="86" customFormat="1" ht="94.5" customHeight="1">
-      <c r="A2" s="85" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+    </row>
+    <row r="2" spans="1:27" s="67" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A2" s="66" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:27" s="6" customFormat="1">
-      <c r="A3" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="61" t="s">
+      <c r="A3" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="64" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="66" t="s">
+      <c r="H3" s="80"/>
+      <c r="I3" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="69" t="s">
+      <c r="J3" s="82"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="66" t="s">
+      <c r="M3" s="85"/>
+      <c r="N3" s="86"/>
+      <c r="O3" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="72" t="s">
+      <c r="P3" s="82"/>
+      <c r="Q3" s="82"/>
+      <c r="R3" s="82"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="75" t="s">
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="76"/>
-      <c r="AA3" s="77"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="75"/>
     </row>
     <row r="4" spans="1:27" s="6" customFormat="1">
-      <c r="A4" s="60"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
@@ -2357,72 +2367,72 @@
     <row r="17" spans="1:27">
       <c r="A17" s="29"/>
     </row>
-    <row r="18" spans="1:27" s="88" customFormat="1" ht="90" customHeight="1">
-      <c r="A18" s="87" t="s">
+    <row r="18" spans="1:27" s="69" customFormat="1" ht="90" customHeight="1">
+      <c r="A18" s="68" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="79" customFormat="1" ht="134.25" customHeight="1">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:27" s="88" customFormat="1" ht="134.25" customHeight="1">
+      <c r="A19" s="87" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="59" customFormat="1">
-      <c r="A20" s="56" t="s">
+    <row r="20" spans="1:27" s="62" customFormat="1">
+      <c r="A20" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="57"/>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="91"/>
     </row>
     <row r="21" spans="1:27" s="38" customFormat="1">
-      <c r="A21" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="80" t="s">
+      <c r="A21" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81" t="s">
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="81"/>
+      <c r="H21" s="60"/>
       <c r="I21" s="52" t="s">
         <v>11</v>
       </c>
       <c r="J21" s="52"/>
       <c r="K21" s="52"/>
-      <c r="L21" s="53" t="s">
+      <c r="L21" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
       <c r="O21" s="52" t="s">
         <v>7</v>
       </c>
@@ -2430,21 +2440,21 @@
       <c r="Q21" s="52"/>
       <c r="R21" s="52"/>
       <c r="S21" s="52"/>
-      <c r="T21" s="54" t="s">
+      <c r="T21" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="U21" s="54"/>
-      <c r="V21" s="54"/>
-      <c r="W21" s="54"/>
-      <c r="X21" s="54"/>
-      <c r="Y21" s="55" t="s">
+      <c r="U21" s="53"/>
+      <c r="V21" s="53"/>
+      <c r="W21" s="53"/>
+      <c r="X21" s="53"/>
+      <c r="Y21" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z21" s="55"/>
-      <c r="AA21" s="55"/>
+      <c r="Z21" s="54"/>
+      <c r="AA21" s="54"/>
     </row>
     <row r="22" spans="1:27" s="38" customFormat="1">
-      <c r="A22" s="60"/>
+      <c r="A22" s="58"/>
       <c r="B22" s="7" t="s">
         <v>3</v>
       </c>
@@ -2776,89 +2786,89 @@
         <v>770</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="79" customFormat="1" ht="41.25" customHeight="1">
-      <c r="A26" s="78" t="s">
+    <row r="26" spans="1:27" s="88" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A26" s="87" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="59" customFormat="1">
-      <c r="A27" s="56" t="s">
+    <row r="27" spans="1:27" s="62" customFormat="1">
+      <c r="A27" s="89" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
-      <c r="X27" s="57"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="90"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="90"/>
+      <c r="J27" s="90"/>
+      <c r="K27" s="90"/>
+      <c r="L27" s="90"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="R27" s="90"/>
+      <c r="S27" s="90"/>
+      <c r="T27" s="90"/>
+      <c r="U27" s="90"/>
+      <c r="V27" s="90"/>
+      <c r="W27" s="90"/>
+      <c r="X27" s="90"/>
+      <c r="Y27" s="90"/>
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="91"/>
     </row>
     <row r="28" spans="1:27" s="6" customFormat="1">
-      <c r="A28" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="61" t="s">
+      <c r="A28" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="64" t="s">
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="65"/>
-      <c r="I28" s="66" t="s">
+      <c r="H28" s="80"/>
+      <c r="I28" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="J28" s="67"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="69" t="s">
+      <c r="J28" s="82"/>
+      <c r="K28" s="83"/>
+      <c r="L28" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="M28" s="70"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="66" t="s">
+      <c r="M28" s="85"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P28" s="67"/>
-      <c r="Q28" s="67"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="72" t="s">
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="U28" s="73"/>
-      <c r="V28" s="73"/>
-      <c r="W28" s="73"/>
-      <c r="X28" s="74"/>
-      <c r="Y28" s="75" t="s">
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="77"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="75"/>
     </row>
     <row r="29" spans="1:27" s="6" customFormat="1">
-      <c r="A29" s="60"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="7" t="s">
         <v>3</v>
       </c>
@@ -3190,41 +3200,41 @@
         <v>743</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="90" customFormat="1" ht="45" customHeight="1">
-      <c r="A33" s="89" t="s">
+    <row r="33" spans="1:27" s="56" customFormat="1" ht="45" customHeight="1">
+      <c r="A33" s="55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="59" customFormat="1">
-      <c r="A34" s="59" t="s">
+    <row r="34" spans="1:27" s="62" customFormat="1">
+      <c r="A34" s="62" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:27" s="39" customFormat="1">
-      <c r="A35" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" s="80" t="s">
+      <c r="A35" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="81" t="s">
+      <c r="C35" s="59"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="H35" s="81"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="52" t="s">
         <v>11</v>
       </c>
       <c r="J35" s="52"/>
       <c r="K35" s="52"/>
-      <c r="L35" s="53" t="s">
+      <c r="L35" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="53"/>
-      <c r="N35" s="53"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
       <c r="O35" s="52" t="s">
         <v>7</v>
       </c>
@@ -3232,21 +3242,21 @@
       <c r="Q35" s="52"/>
       <c r="R35" s="52"/>
       <c r="S35" s="52"/>
-      <c r="T35" s="54" t="s">
+      <c r="T35" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="U35" s="54"/>
-      <c r="V35" s="54"/>
-      <c r="W35" s="54"/>
-      <c r="X35" s="54"/>
-      <c r="Y35" s="55" t="s">
+      <c r="U35" s="53"/>
+      <c r="V35" s="53"/>
+      <c r="W35" s="53"/>
+      <c r="X35" s="53"/>
+      <c r="Y35" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z35" s="55"/>
-      <c r="AA35" s="55"/>
+      <c r="Z35" s="54"/>
+      <c r="AA35" s="54"/>
     </row>
     <row r="36" spans="1:27" s="39" customFormat="1">
-      <c r="A36" s="60"/>
+      <c r="A36" s="58"/>
       <c r="B36" s="41" t="s">
         <v>3</v>
       </c>
@@ -3578,41 +3588,41 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="40" spans="1:27" s="90" customFormat="1" ht="69" customHeight="1">
-      <c r="A40" s="89" t="s">
+    <row r="40" spans="1:27" s="56" customFormat="1" ht="69" customHeight="1">
+      <c r="A40" s="55" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="59" customFormat="1">
-      <c r="A41" s="59" t="s">
+    <row r="41" spans="1:27" s="62" customFormat="1">
+      <c r="A41" s="62" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:27" s="39" customFormat="1">
-      <c r="A42" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="80" t="s">
+      <c r="A42" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="81" t="s">
+      <c r="C42" s="59"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="81"/>
+      <c r="H42" s="60"/>
       <c r="I42" s="52" t="s">
         <v>11</v>
       </c>
       <c r="J42" s="52"/>
       <c r="K42" s="52"/>
-      <c r="L42" s="53" t="s">
+      <c r="L42" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="M42" s="53"/>
-      <c r="N42" s="53"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
       <c r="O42" s="52" t="s">
         <v>7</v>
       </c>
@@ -3620,21 +3630,21 @@
       <c r="Q42" s="52"/>
       <c r="R42" s="52"/>
       <c r="S42" s="52"/>
-      <c r="T42" s="54" t="s">
+      <c r="T42" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="55" t="s">
+      <c r="U42" s="53"/>
+      <c r="V42" s="53"/>
+      <c r="W42" s="53"/>
+      <c r="X42" s="53"/>
+      <c r="Y42" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="Z42" s="55"/>
-      <c r="AA42" s="55"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
     </row>
     <row r="43" spans="1:27" s="39" customFormat="1">
-      <c r="A43" s="60"/>
+      <c r="A43" s="58"/>
       <c r="B43" s="41" t="s">
         <v>3</v>
       </c>
@@ -3966,8 +3976,8 @@
         <v>35805</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="90" customFormat="1" ht="49.5" customHeight="1">
-      <c r="A47" s="91" t="s">
+    <row r="47" spans="1:27" s="56" customFormat="1" ht="49.5" customHeight="1">
+      <c r="A47" s="57" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4171,6 +4181,42 @@
     </row>
   </sheetData>
   <mergeCells count="52">
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="T35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="A27:XFD27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="A19:XFD19"/>
+    <mergeCell ref="A20:XFD20"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="A1:XFD1"/>
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="T3:X3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:S3"/>
     <mergeCell ref="O42:S42"/>
     <mergeCell ref="T42:X42"/>
     <mergeCell ref="Y42:AA42"/>
@@ -4187,42 +4233,6 @@
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="G35:H35"/>
-    <mergeCell ref="A1:XFD1"/>
-    <mergeCell ref="A2:XFD2"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="T3:X3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="A19:XFD19"/>
-    <mergeCell ref="A20:XFD20"/>
-    <mergeCell ref="A26:XFD26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="O21:S21"/>
-    <mergeCell ref="T21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="A27:XFD27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N28"/>
-    <mergeCell ref="O28:S28"/>
-    <mergeCell ref="T28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="O35:S35"/>
-    <mergeCell ref="T35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10922,7 +10932,7 @@
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -12564,13 +12574,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="48.75" customHeight="1">
       <c r="A1" s="20" t="s">
@@ -12625,7 +12638,273 @@
         <v>40</v>
       </c>
     </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="19">
+        <v>42967</v>
+      </c>
+      <c r="B2" s="5">
+        <v>761</v>
+      </c>
+      <c r="C2" s="5">
+        <v>247</v>
+      </c>
+      <c r="E2" s="5">
+        <v>233</v>
+      </c>
+      <c r="F2" s="5">
+        <v>166</v>
+      </c>
+      <c r="H2" s="5">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="19">
+        <v>42966</v>
+      </c>
+      <c r="B3" s="5">
+        <v>1393</v>
+      </c>
+      <c r="C3" s="5">
+        <v>591</v>
+      </c>
+      <c r="E3" s="5">
+        <v>329</v>
+      </c>
+      <c r="F3" s="5">
+        <v>303</v>
+      </c>
+      <c r="H3" s="5">
+        <v>72</v>
+      </c>
+      <c r="I3" s="5">
+        <v>131</v>
+      </c>
+      <c r="N3" s="94">
+        <v>1.4641203703703703E-2</v>
+      </c>
+      <c r="O3" s="94">
+        <v>1.1435185185185185E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="19">
+        <v>42965</v>
+      </c>
+      <c r="B4" s="5">
+        <v>799</v>
+      </c>
+      <c r="C4" s="5">
+        <v>396</v>
+      </c>
+      <c r="E4" s="5">
+        <v>251</v>
+      </c>
+      <c r="F4" s="5">
+        <v>231</v>
+      </c>
+      <c r="H4" s="5">
+        <v>34</v>
+      </c>
+      <c r="I4" s="5">
+        <v>97</v>
+      </c>
+      <c r="N4" s="94">
+        <v>1.1469907407407408E-2</v>
+      </c>
+      <c r="O4" s="94">
+        <v>1.2187500000000002E-2</v>
+      </c>
+      <c r="P4" s="5"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="19">
+        <v>42964</v>
+      </c>
+      <c r="B5" s="5">
+        <v>977</v>
+      </c>
+      <c r="C5" s="5">
+        <v>379</v>
+      </c>
+      <c r="E5" s="5">
+        <v>262</v>
+      </c>
+      <c r="F5" s="5">
+        <v>221</v>
+      </c>
+      <c r="H5" s="5">
+        <v>34</v>
+      </c>
+      <c r="I5" s="5">
+        <v>84</v>
+      </c>
+      <c r="N5" s="94">
+        <v>1.5173611111111112E-2</v>
+      </c>
+      <c r="O5" s="94">
+        <v>1.1655092592592594E-2</v>
+      </c>
+      <c r="P5" s="5"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="19">
+        <v>42963</v>
+      </c>
+      <c r="B6" s="5">
+        <v>919</v>
+      </c>
+      <c r="C6" s="5">
+        <v>360</v>
+      </c>
+      <c r="E6" s="5">
+        <v>238</v>
+      </c>
+      <c r="F6" s="5">
+        <v>201</v>
+      </c>
+      <c r="H6" s="5">
+        <v>36</v>
+      </c>
+      <c r="I6" s="5">
+        <v>77</v>
+      </c>
+      <c r="N6" s="94">
+        <v>1.4490740740740742E-2</v>
+      </c>
+      <c r="O6" s="94">
+        <v>1.577546296296296E-2</v>
+      </c>
+      <c r="P6" s="5"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="19">
+        <v>42962</v>
+      </c>
+      <c r="B7" s="5">
+        <v>876</v>
+      </c>
+      <c r="C7" s="5">
+        <v>381</v>
+      </c>
+      <c r="E7" s="5">
+        <v>250</v>
+      </c>
+      <c r="F7" s="5">
+        <v>227</v>
+      </c>
+      <c r="H7" s="5">
+        <v>28</v>
+      </c>
+      <c r="I7" s="5">
+        <v>83</v>
+      </c>
+      <c r="N7" s="94">
+        <v>1.4884259259259259E-2</v>
+      </c>
+      <c r="O7" s="94">
+        <v>1.1793981481481482E-2</v>
+      </c>
+      <c r="P7" s="5"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="19">
+        <v>42961</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1083</v>
+      </c>
+      <c r="C8" s="5">
+        <v>413</v>
+      </c>
+      <c r="E8" s="5">
+        <v>270</v>
+      </c>
+      <c r="F8" s="5">
+        <v>232</v>
+      </c>
+      <c r="H8" s="5">
+        <v>42</v>
+      </c>
+      <c r="I8" s="5">
+        <v>95</v>
+      </c>
+      <c r="N8" s="94">
+        <v>1.7662037037037035E-2</v>
+      </c>
+      <c r="O8" s="94">
+        <v>1.4143518518518519E-2</v>
+      </c>
+      <c r="P8" s="5"/>
+    </row>
+    <row r="9" spans="1:17" ht="27.75" customHeight="1">
+      <c r="A9" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="21">
+        <f>SUM(B2:B8)</f>
+        <v>6808</v>
+      </c>
+      <c r="C9" s="21">
+        <f>SUM(C2:C8)</f>
+        <v>2767</v>
+      </c>
+      <c r="D9" s="17">
+        <f>SUM(B9:C9)</f>
+        <v>9575</v>
+      </c>
+      <c r="E9" s="21">
+        <f>SUM(E2:E8)</f>
+        <v>1833</v>
+      </c>
+      <c r="F9" s="21">
+        <f>SUM(F2:F8)</f>
+        <v>1581</v>
+      </c>
+      <c r="G9" s="17">
+        <f>SUM(E9:F9)</f>
+        <v>3414</v>
+      </c>
+      <c r="H9" s="21">
+        <f>SUM(H2:H8)</f>
+        <v>296</v>
+      </c>
+      <c r="I9" s="21">
+        <f>SUM(I2:I8)</f>
+        <v>635</v>
+      </c>
+      <c r="J9" s="17">
+        <f>SUM(H9:I9)</f>
+        <v>931</v>
+      </c>
+      <c r="K9" s="21">
+        <v>2519</v>
+      </c>
+      <c r="L9" s="21">
+        <v>3456</v>
+      </c>
+      <c r="M9" s="17">
+        <f>SUM(K9:L9)</f>
+        <v>5975</v>
+      </c>
+      <c r="N9" s="95">
+        <f>AVERAGE(N3:N8)</f>
+        <v>1.4720293209876542E-2</v>
+      </c>
+      <c r="O9" s="95">
+        <f>AVERAGE(O3:O8)</f>
+        <v>1.2831790123456789E-2</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+    </row>
   </sheetData>
+  <sortState ref="A2:Q8">
+    <sortCondition descending="1" ref="A2"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
